--- a/biology/Histoire de la zoologie et de la botanique/Société_américaine_de_botanique/Société_américaine_de_botanique.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Société_américaine_de_botanique/Société_américaine_de_botanique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_am%C3%A9ricaine_de_botanique</t>
+          <t>Société_américaine_de_botanique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Société américaine de botanique (en anglais Botanical Society of America) est une société savante des États-Unis d'Amérique destinée à promouvoir l’étude scientifique des végétaux.
 Elle a été créée en 1906 de la fusion du Club botanique de l’Association américaine pour l'avancement des sciences (fondé en 1893), de la Society for Plant Morphology and Physiology (fondée en 1896) et de l’American Mycological Society (fondée en 1903). 
